--- a/StructureDefinition-VunsTobaccoObservation.xlsx
+++ b/StructureDefinition-VunsTobaccoObservation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-14T13:33:24+02:00</t>
+    <t>2025-05-23T16:57:29+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VunsTobaccoObservation.xlsx
+++ b/StructureDefinition-VunsTobaccoObservation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:57:29+02:00</t>
+    <t>2025-05-27T16:55:56+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VunsTobaccoObservation.xlsx
+++ b/StructureDefinition-VunsTobaccoObservation.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-27T16:55:56+02:00</t>
+    <t>2025-05-28T10:00:58+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VunsTobaccoObservation.xlsx
+++ b/StructureDefinition-VunsTobaccoObservation.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2147" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="481">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-28T10:00:58+02:00</t>
+    <t>2025-04-14</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>RM@H IG (C) 2025-2025 University Hospital of Liege, GSI Department, Belgium. This implementation guide is free software: you can redistribute it and/or modify it under the terms of the GNU General Public License as published by the Free Software Foundation, either version 3 of the License, or (at your option) any later version. This program is distributed in the hope that it will be useful, but WITHOUT ANY WARRANTY; without even the implied warranty of MERCHANTABILITY or FITNESS FOR A PARTICULAR PURPOSE. See the GNU General Public License for more details. You should have received a copy of the GNU General Public License along with this program. If not, see &lt;http://www.gnu.org/licenses/&gt;.</t>
   </si>
   <si>
     <t>FHIR Version</t>
@@ -273,7 +276,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}VunsTobaccoStatus:Restraint les valeurs possible pour le statut de tabagisme {code.coding.where(code = '72166-2').exists() implies value.coding.memberOf('i2x-tabac-status')}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}VunsTobaccoStatus:Restraint les valeurs possible pour le statut de tabagisme {code.coding.where(code = '72166-2').exists() implies value.coding.memberOf('i2x-tabac-status')}</t>
   </si>
   <si>
     <t>Event</t>
@@ -452,6 +455,16 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
@@ -491,6 +504,10 @@
     <t>Allows observations to be distinguished and referenced.</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -520,7 +537,14 @@
     <t>A plan, proposal or order that is fulfilled in whole or in part by this event.  For example, a MedicationRequest may require a patient to have laboratory test performed before  it is dispensed.</t>
   </si>
   <si>
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
+  </si>
+  <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -628,6 +652,9 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
+    <t>CE/CNE/CWE</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
@@ -705,16 +732,6 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -965,8 +982,8 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-7
-</t>
+    <t>ele-1
+obs-7</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -1006,8 +1023,8 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-6
-</t>
+    <t>ele-1
+obs-6</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1254,8 +1271,15 @@
     <t>The value of the low bound of the reference range.  The low bound of the reference range endpoint is inclusive of the value (e.g.  reference range is &gt;=5 - &lt;=9). If the low bound is omitted,  it is assumed to be meaningless (e.g. reference range is &lt;=2.3).</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-3
-</t>
+    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
+  </si>
+  <si>
+    <t>ele-1
+obs-3</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
     <t>OBX-7</t>
@@ -1343,9 +1367,19 @@
     <t>The age at which this reference range is applicable. This is a neonatal age (e.g. number of weeks at term) if the meaning says so.</t>
   </si>
   <si>
+    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
+  </si>
+  <si>
     <t>Some analytes vary greatly over age.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+rng-2:If present, low SHALL have a lower value than high {low.empty() or high.empty() or (low &lt;= high)}</t>
+  </si>
+  <si>
+    <t>NR and also possibly SN (but see also quantity)</t>
+  </si>
+  <si>
     <t>outboundRelationship[typeCode=PRCN].targetObservationCriterion[code="age"].value</t>
   </si>
   <si>
@@ -1356,6 +1390,9 @@
   </si>
   <si>
     <t>Text based reference range in an observation which may be used when a quantitative range is not appropriate for an observation.  An example would be a reference value of "Negative" or a list or table of "normals".</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
   </si>
   <si>
     <t>value:ST</t>
@@ -1728,54 +1765,56 @@
       <c r="A14" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1839,149 +1878,149 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>19</v>
@@ -1993,16 +2032,16 @@
         <v>19</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2052,31 +2091,31 @@
         <v>19</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>19</v>
@@ -2087,10 +2126,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2098,10 +2137,10 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>19</v>
@@ -2110,19 +2149,19 @@
         <v>19</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2172,13 +2211,13 @@
         <v>19</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>19</v>
@@ -2207,10 +2246,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2218,10 +2257,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>19</v>
@@ -2230,16 +2269,16 @@
         <v>19</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2290,19 +2329,19 @@
         <v>19</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>19</v>
@@ -2325,10 +2364,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2336,31 +2375,31 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2410,19 +2449,19 @@
         <v>19</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>19</v>
@@ -2445,10 +2484,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2456,10 +2495,10 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>19</v>
@@ -2471,16 +2510,16 @@
         <v>19</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2506,13 +2545,13 @@
         <v>19</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>19</v>
@@ -2530,19 +2569,19 @@
         <v>19</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>19</v>
@@ -2565,21 +2604,21 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>19</v>
@@ -2591,16 +2630,16 @@
         <v>19</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2650,19 +2689,19 @@
         <v>19</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>19</v>
@@ -2674,7 +2713,7 @@
         <v>19</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>19</v>
@@ -2685,21 +2724,21 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>19</v>
@@ -2711,16 +2750,16 @@
         <v>19</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2770,13 +2809,13 @@
         <v>19</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>19</v>
@@ -2794,7 +2833,7 @@
         <v>19</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>19</v>
@@ -2805,21 +2844,21 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>19</v>
@@ -2831,16 +2870,16 @@
         <v>19</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2878,31 +2917,31 @@
         <v>19</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>19</v>
@@ -2914,7 +2953,7 @@
         <v>19</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>19</v>
@@ -2925,45 +2964,45 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>19</v>
@@ -3000,31 +3039,31 @@
         <v>19</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>19</v>
@@ -3036,7 +3075,7 @@
         <v>19</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>19</v>
@@ -3047,10 +3086,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3058,10 +3097,10 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>19</v>
@@ -3070,20 +3109,20 @@
         <v>19</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>19</v>
@@ -3132,34 +3171,34 @@
         <v>19</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>19</v>
@@ -3167,21 +3206,21 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>19</v>
@@ -3190,20 +3229,22 @@
         <v>19</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="N12" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O12" t="s" s="2">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>19</v>
@@ -3252,31 +3293,31 @@
         <v>19</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI12" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>19</v>
-      </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>19</v>
@@ -3287,21 +3328,21 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>19</v>
@@ -3310,19 +3351,19 @@
         <v>19</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3372,31 +3413,31 @@
         <v>19</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>19</v>
@@ -3407,10 +3448,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3418,34 +3459,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>19</v>
@@ -3455,7 +3496,7 @@
         <v>19</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>19</v>
@@ -3470,58 +3511,58 @@
         <v>19</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Y14" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="Z14" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>175</v>
-      </c>
       <c r="AG14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>19</v>
@@ -3529,10 +3570,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3540,10 +3581,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>19</v>
@@ -3555,19 +3596,19 @@
         <v>19</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>19</v>
@@ -3592,43 +3633,43 @@
         <v>19</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Z15" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="AA15" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>189</v>
-      </c>
       <c r="AG15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>19</v>
@@ -3637,13 +3678,13 @@
         <v>19</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>19</v>
+        <v>204</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>19</v>
@@ -3651,21 +3692,21 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>19</v>
@@ -3674,22 +3715,22 @@
         <v>19</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>19</v>
@@ -3714,69 +3755,69 @@
         <v>19</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="Z16" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>199</v>
-      </c>
       <c r="AG16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3784,10 +3825,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>19</v>
@@ -3799,13 +3840,13 @@
         <v>19</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3856,13 +3897,13 @@
         <v>19</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>19</v>
@@ -3880,7 +3921,7 @@
         <v>19</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>19</v>
@@ -3891,21 +3932,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>19</v>
@@ -3917,16 +3958,16 @@
         <v>19</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3964,31 +4005,31 @@
         <v>19</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>223</v>
+        <v>143</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>224</v>
+        <v>144</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>19</v>
@@ -4000,7 +4041,7 @@
         <v>19</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>19</v>
@@ -4011,10 +4052,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4022,10 +4063,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>19</v>
@@ -4034,22 +4075,22 @@
         <v>19</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>19</v>
@@ -4074,11 +4115,11 @@
         <v>19</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>19</v>
@@ -4096,19 +4137,19 @@
         <v>19</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>19</v>
@@ -4117,10 +4158,10 @@
         <v>19</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>19</v>
@@ -4131,10 +4172,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4142,10 +4183,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>19</v>
@@ -4154,22 +4195,22 @@
         <v>19</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>19</v>
@@ -4218,19 +4259,19 @@
         <v>19</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>19</v>
@@ -4239,10 +4280,10 @@
         <v>19</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>19</v>
@@ -4253,10 +4294,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4264,10 +4305,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>19</v>
@@ -4276,22 +4317,22 @@
         <v>19</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>19</v>
@@ -4340,34 +4381,34 @@
         <v>19</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>19</v>
@@ -4375,10 +4416,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4386,10 +4427,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>19</v>
@@ -4398,19 +4439,19 @@
         <v>19</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4460,19 +4501,19 @@
         <v>19</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>19</v>
@@ -4481,13 +4522,13 @@
         <v>19</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>19</v>
@@ -4495,21 +4536,21 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>19</v>
@@ -4518,22 +4559,22 @@
         <v>19</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>19</v>
@@ -4582,34 +4623,34 @@
         <v>19</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>19</v>
@@ -4617,21 +4658,21 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>19</v>
@@ -4640,22 +4681,22 @@
         <v>19</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>19</v>
@@ -4704,34 +4745,34 @@
         <v>19</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>19</v>
@@ -4739,10 +4780,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4750,10 +4791,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>19</v>
@@ -4762,19 +4803,19 @@
         <v>19</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4824,19 +4865,19 @@
         <v>19</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>19</v>
@@ -4845,13 +4886,13 @@
         <v>19</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>19</v>
@@ -4859,10 +4900,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4870,10 +4911,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>19</v>
@@ -4882,20 +4923,22 @@
         <v>19</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>19</v>
@@ -4944,34 +4987,34 @@
         <v>19</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>19</v>
@@ -4979,10 +5022,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4990,10 +5033,10 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>19</v>
@@ -5002,22 +5045,22 @@
         <v>19</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>19</v>
@@ -5066,45 +5109,45 @@
         <v>19</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5112,10 +5155,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>19</v>
@@ -5127,19 +5170,19 @@
         <v>19</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>19</v>
@@ -5164,43 +5207,43 @@
         <v>19</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>310</v>
-      </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>19</v>
@@ -5209,10 +5252,10 @@
         <v>19</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>19</v>
@@ -5223,21 +5266,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>19</v>
@@ -5249,19 +5292,19 @@
         <v>19</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>19</v>
@@ -5286,13 +5329,13 @@
         <v>19</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>19</v>
@@ -5310,45 +5353,45 @@
         <v>19</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5356,10 +5399,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>19</v>
@@ -5371,19 +5414,19 @@
         <v>19</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>19</v>
@@ -5432,19 +5475,19 @@
         <v>19</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>19</v>
@@ -5453,10 +5496,10 @@
         <v>19</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>19</v>
@@ -5467,10 +5510,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5478,10 +5521,10 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>19</v>
@@ -5493,16 +5536,16 @@
         <v>19</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5528,69 +5571,69 @@
         <v>19</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Z31" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AA31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>340</v>
-      </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5598,10 +5641,10 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>19</v>
@@ -5613,19 +5656,19 @@
         <v>19</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>19</v>
@@ -5650,43 +5693,43 @@
         <v>19</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>350</v>
-      </c>
       <c r="AG32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>19</v>
@@ -5695,10 +5738,10 @@
         <v>19</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>19</v>
@@ -5709,10 +5752,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5720,10 +5763,10 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>19</v>
@@ -5735,16 +5778,16 @@
         <v>19</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5794,45 +5837,45 @@
         <v>19</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5840,10 +5883,10 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>19</v>
@@ -5855,16 +5898,16 @@
         <v>19</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5914,45 +5957,45 @@
         <v>19</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5960,10 +6003,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>19</v>
@@ -5975,19 +6018,19 @@
         <v>19</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>19</v>
@@ -6036,19 +6079,19 @@
         <v>19</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>19</v>
@@ -6057,10 +6100,10 @@
         <v>19</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>19</v>
@@ -6071,10 +6114,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6082,10 +6125,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>19</v>
@@ -6097,13 +6140,13 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6154,13 +6197,13 @@
         <v>19</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>19</v>
@@ -6178,7 +6221,7 @@
         <v>19</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>19</v>
@@ -6189,21 +6232,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>19</v>
@@ -6215,16 +6258,16 @@
         <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6262,31 +6305,31 @@
         <v>19</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>19</v>
@@ -6298,7 +6341,7 @@
         <v>19</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>19</v>
@@ -6309,45 +6352,45 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>19</v>
@@ -6396,19 +6439,19 @@
         <v>19</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>19</v>
@@ -6420,7 +6463,7 @@
         <v>19</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>19</v>
@@ -6431,10 +6474,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6442,10 +6485,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>19</v>
@@ -6457,15 +6500,17 @@
         <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>402</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>19</v>
@@ -6514,19 +6559,19 @@
         <v>19</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>404</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>19</v>
@@ -6535,10 +6580,10 @@
         <v>19</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>19</v>
@@ -6549,10 +6594,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6560,10 +6605,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>19</v>
@@ -6575,15 +6620,17 @@
         <v>19</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="M40" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N40" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>19</v>
@@ -6632,19 +6679,19 @@
         <v>19</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>103</v>
+        <v>404</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>19</v>
@@ -6653,10 +6700,10 @@
         <v>19</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>19</v>
@@ -6667,10 +6714,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6678,10 +6725,10 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>19</v>
@@ -6693,19 +6740,19 @@
         <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>19</v>
@@ -6730,13 +6777,13 @@
         <v>19</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>19</v>
@@ -6754,31 +6801,31 @@
         <v>19</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>19</v>
@@ -6789,10 +6836,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6800,10 +6847,10 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>19</v>
@@ -6815,19 +6862,19 @@
         <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>19</v>
@@ -6852,55 +6899,55 @@
         <v>19</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="Z42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="AA42" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>412</v>
-      </c>
       <c r="AN42" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>19</v>
@@ -6911,10 +6958,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6922,10 +6969,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>19</v>
@@ -6937,17 +6984,19 @@
         <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>431</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>19</v>
@@ -6996,19 +7045,19 @@
         <v>19</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>433</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>19</v>
@@ -7017,10 +7066,10 @@
         <v>19</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>19</v>
+        <v>434</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>19</v>
@@ -7031,10 +7080,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7042,10 +7091,10 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>19</v>
@@ -7057,15 +7106,17 @@
         <v>19</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>19</v>
@@ -7114,19 +7165,19 @@
         <v>19</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>19</v>
@@ -7135,10 +7186,10 @@
         <v>19</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>19</v>
@@ -7149,10 +7200,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7160,10 +7211,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>19</v>
@@ -7172,19 +7223,19 @@
         <v>19</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7234,19 +7285,19 @@
         <v>19</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>19</v>
@@ -7255,10 +7306,10 @@
         <v>19</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>19</v>
@@ -7269,10 +7320,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7280,10 +7331,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>19</v>
@@ -7292,19 +7343,19 @@
         <v>19</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7354,19 +7405,19 @@
         <v>19</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>19</v>
@@ -7375,10 +7426,10 @@
         <v>19</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>19</v>
@@ -7389,10 +7440,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7400,10 +7451,10 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>19</v>
@@ -7412,22 +7463,22 @@
         <v>19</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>19</v>
@@ -7476,19 +7527,19 @@
         <v>19</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>19</v>
@@ -7497,10 +7548,10 @@
         <v>19</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>19</v>
@@ -7511,10 +7562,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7522,10 +7573,10 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>19</v>
@@ -7537,13 +7588,13 @@
         <v>19</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7594,13 +7645,13 @@
         <v>19</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>19</v>
@@ -7618,7 +7669,7 @@
         <v>19</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>19</v>
@@ -7629,21 +7680,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>19</v>
@@ -7655,16 +7706,16 @@
         <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7702,31 +7753,31 @@
         <v>19</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>19</v>
+        <v>142</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>19</v>
@@ -7738,7 +7789,7 @@
         <v>19</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>19</v>
@@ -7749,45 +7800,45 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>19</v>
@@ -7836,19 +7887,19 @@
         <v>19</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>19</v>
@@ -7860,7 +7911,7 @@
         <v>19</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>19</v>
@@ -7871,10 +7922,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7882,10 +7933,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>19</v>
@@ -7894,22 +7945,22 @@
         <v>19</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>19</v>
@@ -7934,13 +7985,13 @@
         <v>19</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>19</v>
@@ -7958,34 +8009,34 @@
         <v>19</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>19</v>
@@ -7993,10 +8044,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8004,10 +8055,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>19</v>
@@ -8016,22 +8067,22 @@
         <v>19</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>19</v>
@@ -8080,45 +8131,45 @@
         <v>19</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8126,10 +8177,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>19</v>
@@ -8141,19 +8192,19 @@
         <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>19</v>
@@ -8178,13 +8229,13 @@
         <v>19</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>19</v>
@@ -8202,19 +8253,19 @@
         <v>19</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>19</v>
@@ -8223,10 +8274,10 @@
         <v>19</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>19</v>
@@ -8237,21 +8288,21 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>19</v>
@@ -8263,19 +8314,19 @@
         <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>19</v>
@@ -8300,13 +8351,13 @@
         <v>19</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>19</v>
@@ -8324,45 +8375,45 @@
         <v>19</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>19</v>
+        <v>157</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8370,10 +8421,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>19</v>
@@ -8385,19 +8436,19 @@
         <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>19</v>
@@ -8446,19 +8497,19 @@
         <v>19</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>19</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>19</v>
@@ -8467,10 +8518,10 @@
         <v>19</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>19</v>
